--- a/10-1c-slovarSKartinkami/sl.xlsx
+++ b/10-1c-slovarSKartinkami/sl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neo\Desktop\2024\10-1c-slovarSKartinkami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B14221-3FD2-4352-90DD-50E99208E250}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F9E91D-5B58-4920-9C74-53B9615E93A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="20400" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="1277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="1309">
   <si>
     <t>act</t>
   </si>
@@ -3386,10 +3386,6 @@
     <t>I failed to remove the app.</t>
   </si>
   <si>
-    <t>I worry about you. /
-I didn't want to worry Mum.</t>
-  </si>
-  <si>
     <t>prepare</t>
   </si>
   <si>
@@ -3410,10 +3406,6 @@
   <si>
     <t>She removed a lot of phone numbers and reduced the list. /
 She removed the dirty dishes from the table</t>
-  </si>
-  <si>
-    <t>I learned (how) to swim by myself. /
-I learned about the accident in the morning.</t>
   </si>
   <si>
     <t>He named everybody but me.</t>
@@ -3457,9 +3449,6 @@
     <t>We have (already) begun to support them.</t>
   </si>
   <si>
-    <t>I gave her the keys but she lost them.</t>
-  </si>
-  <si>
     <t>I shose him as I considered him a good friend.</t>
   </si>
   <si>
@@ -3473,16 +3462,6 @@
   </si>
   <si>
     <t>I have drawn the plan.</t>
-  </si>
-  <si>
-    <t>I put the keys in my pocket. /
-I put the book on the shelf and left.</t>
-  </si>
-  <si>
-    <t>She meant what she said.</t>
-  </si>
-  <si>
-    <t>She let her brother take her car.</t>
   </si>
   <si>
     <t>Have you shown him our new house?</t>
@@ -3524,14 +3503,7 @@
     <t>Don't move!</t>
   </si>
   <si>
-    <t>He thought it was a good idea. /
-Have you thought about it?</t>
-  </si>
-  <si>
     <t>He called me as soon as they received the message.</t>
-  </si>
-  <si>
-    <t>She has (already) understood everything.</t>
   </si>
   <si>
     <t>She sat on the couch and ate crisps. /
@@ -3541,31 +3513,14 @@
     <t>She meant well but he didn't believe her.</t>
   </si>
   <si>
-    <t>He ran as fast as he could to catch the bus.</t>
-  </si>
-  <si>
     <t>He knew how to change it. /
 I have changed three jobs</t>
   </si>
   <si>
-    <t>We wrote a note and left.</t>
-  </si>
-  <si>
     <t>The car wasn't used yesterday.</t>
   </si>
   <si>
-    <t>He was taught (how) to play the piano when he was a kid. /
-He taught me (how) to play the guitar.</t>
-  </si>
-  <si>
     <t>We tried to include all the details.</t>
-  </si>
-  <si>
-    <t>He says he has found his lost wallet. /
-Have you found your keys yet?</t>
-  </si>
-  <si>
-    <t>He was asked about the lost money.</t>
   </si>
   <si>
     <t>I have chosen a phone. /
@@ -3616,10 +3571,6 @@
   <si>
     <t>Unfortunately I was involved in it as well. /
 My job didn't involve cleaning.</t>
-  </si>
-  <si>
-    <t>I suppose you're laughing at me. /
-I'll be laughed at.</t>
   </si>
   <si>
     <t>She dropped the phone on the floor. /
@@ -3627,10 +3578,6 @@
 I've just dropped my phone in the toilet.</t>
   </si>
   <si>
-    <t>Can you pull it out? /
-The child was pulled out of the water.</t>
-  </si>
-  <si>
     <t>I'm not allowed to drive. /
 Mom doesn't allow me to throw pebbles into the water.</t>
   </si>
@@ -3638,10 +3585,6 @@
     <t>I didn't enjoy the way the movie ended. /
 She enjoys driving. /
 She enjoyed the way it sounded.</t>
-  </si>
-  <si>
-    <t>I expect (that) the job will be finished in time. /
-I guess the job won't be finished in time.</t>
   </si>
   <si>
     <t>Smartphones didn't yet exist when we started working.</t>
@@ -3787,30 +3730,6 @@
     <t>What has happened? /
 It happened to me 2 years ago. /
 What's happening? (Z)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Can you walk?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Z) I can walk. (Z)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -3841,8 +3760,105 @@
     </r>
   </si>
   <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>swim</t>
+  </si>
+  <si>
+    <t>(Z)</t>
+  </si>
+  <si>
+    <t>I can jump.</t>
+  </si>
+  <si>
+    <t>excuse</t>
+  </si>
+  <si>
+    <t>Excuse me.</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>Is it still raining?</t>
+  </si>
+  <si>
+    <t>On Monday I play football. (Z)
+When do you play football? (Z) /</t>
+  </si>
+  <si>
+    <t>bounce</t>
+  </si>
+  <si>
+    <t>...bouncing on the chairs.</t>
+  </si>
+  <si>
+    <t>slid</t>
+  </si>
+  <si>
+    <t>...sliding down the stairs.</t>
+  </si>
+  <si>
+    <t>I don't care who was picked. /
+There are hundreds in the garden picking all the flowers. (Z)</t>
+  </si>
+  <si>
+    <t>More of them and more of them, appearing everywhere! (Z)</t>
+  </si>
+  <si>
+    <t>frighten</t>
+  </si>
+  <si>
+    <t>I'm frightened. /
+Why are you frightened?</t>
+  </si>
+  <si>
+    <t>cry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He's crying. / Why are you crying? </t>
+  </si>
+  <si>
+    <t>Reach us and we'll provide everything you need. /
+Because I can't reach the apple. (Z) /
+Why can't you reach the apple? (Z) /
+I can reach the apple. (Z)</t>
+  </si>
+  <si>
+    <t>She run in the park every morning. /
+Can you run? (Z) / Now I can run. (Z) /
+Run downstairs… quickly! (Z) /
+I can run away. (Z)</t>
+  </si>
+  <si>
+    <t>beg</t>
+  </si>
+  <si>
+    <t>Oh, I beg your pardon.</t>
+  </si>
+  <si>
+    <t>I was happy to help. /
+Help me! (Z) Help the Queen. (Z) /
+But he can't help! (Z)/ I can help. (Z)</t>
+  </si>
+  <si>
+    <t>wake up</t>
+  </si>
+  <si>
+    <t>wake up!</t>
+  </si>
+  <si>
+    <t>I can't stand him. /
+They stood in line to buy tickets. /
+Stand there! (Z)</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">I heard some noise outside at night. /
+      <t xml:space="preserve">I'd like to try it. /
 </t>
     </r>
     <r>
@@ -3854,7 +3870,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Can you hear me? </t>
+      <t>Let me try again.</t>
     </r>
     <r>
       <rPr>
@@ -3865,32 +3881,277 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Z) / I can hear. (Z)</t>
+      <t xml:space="preserve"> (Z) Now try this. (Z)</t>
     </r>
   </si>
   <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>jump</t>
-  </si>
-  <si>
-    <t>swim</t>
-  </si>
-  <si>
-    <t>(Z)</t>
-  </si>
-  <si>
-    <t>I can jump.</t>
-  </si>
-  <si>
-    <t>I can swim.</t>
-  </si>
-  <si>
-    <t>excuse</t>
-  </si>
-  <si>
-    <t>Excuse me.</t>
+    <t>They left the party early. /
+The money was left on the table. /
+Yesterday I left my car keys at home. /
+And that leaves… Me! (Z)</t>
+  </si>
+  <si>
+    <t>You are welcome. / 
+I welcome your decision. /
+They welcomed changes. /
+Welcome to Gondoland. (Z)</t>
+  </si>
+  <si>
+    <t>I was told to keep playing. /
+Tell me. (Z) /</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>She knew he was there. /
+Do we know each other? /
+I don't know. (Z) / I know you. (Z)</t>
+  </si>
+  <si>
+    <t>I hate this job. I hate work. I hate Bob.</t>
+  </si>
+  <si>
+    <t>bite</t>
+  </si>
+  <si>
+    <t>I need a drink. / 
+You need to drink. /
+What do we need? (Z) Do we need any salt? (Z) I need flour, sugar … (Z)
+I need help. (Z) He can help you. (Z) We don't need any pepper. (Z)</t>
+  </si>
+  <si>
+    <t>The message was read only in the morning. /
+Read it! (Z) You can't read.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I've seen them today. /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>See you!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (at seven)(this evening) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Z) /
+See you at ten o'clock. (Z) /See you at the party! (Z)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I can't see you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Z).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Can you see me?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Z) / I can see. (Z) I see. (Z) It is nice to see you. (Z) Glad to see you again. (Z) Can you see anyone? (Z) I can't see anyone. (Z) Can anyone see me? (Z) No one can see me. (Z)</t>
+    </r>
+  </si>
+  <si>
+    <t>Push the button! (Z)
+Push this button here! (Z) Now I'm pushing my button. (Z)</t>
+  </si>
+  <si>
+    <t>greet</t>
+  </si>
+  <si>
+    <t>Can you greet the quests politely?</t>
+  </si>
+  <si>
+    <t>He says he doesn't know the address. /
+We're saying goodbye to you. (Z) /
+This clock here says quarter to three. (Z)/
+What does it say here? (Z) It says 'Push'. (Z) Say "Good evening". (Z)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I have taken the money. /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Take him away!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Z). /
+Take this. (Z) / Take all those away! (Z). /
+He often takes them off. (Z)
+Take this box. (Z) Take my coat. (Z) Take it carefully. (Z)</t>
+    </r>
+  </si>
+  <si>
+    <t>Close it again and then open it gently and quietly. (Z)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I came home at 6 and left at 7. /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Where do you come from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Z)? /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Come here!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Z) Come back! (Z) /
+Somebody's coming. (Z) / I'm coming. (Z) /
+Where are they all coming from? (Z)/
+They're coming from Corvax's room upstairs. (Z) Come on! (Z) Come in. (Z) /
+Please come back some day. (Z) Everyone's coming along. (Z)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She made a delicious cake and we ate it (up) together. / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eat it!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Z) /
+Muzzy, why do you eat clocks? (Z) /
+Why are you eating that? (Z) Does he eat clocks? (Z) Mussy eats clocks. (Z)
+I'm eating them all. (Z)</t>
+    </r>
+  </si>
+  <si>
+    <t>I'm waiting for him to come. /
+He waited for it to start. /
+He wasn't waited for. /
+Wait over there! (Z)
+Bob's waiting. (Z) Wait a moment! (Z) /
+Wait and see. (Z) The queen's waiting for you. (Z) But wait for my big surprise! (Z)</t>
   </si>
   <si>
     <r>
@@ -4009,602 +4270,34 @@
       <t xml:space="preserve"> (Z) Have a rest (Z). /
 Can we have some food, please? (Z)
 Can I have a clock, please? (Z)/
-I'm having breakfast. (Z)</t>
+I'm having breakfast. (Z)
+I'm having clocks. (Z) I'm having some. (Z) I'm having a piece, too. (Z)</t>
     </r>
-  </si>
-  <si>
-    <t>He stayed at home. /
-Stay in your room, dear, and have a rest. (Z)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He felt tired after jogging and decided to walk a little. /
-I simetimes felt I was followed and watched. /
-Feel free to reach us if you require any info(rmation). /
-Feeling better? </t>
-  </si>
-  <si>
-    <t>She is working. /
-Is it still working? (Z) Yes. It's working. (Z)</t>
-  </si>
-  <si>
-    <t>rain</t>
-  </si>
-  <si>
-    <t>Is it still raining?</t>
-  </si>
-  <si>
-    <t>On Monday I play football. (Z)
-When do you play football? (Z) /</t>
   </si>
   <si>
     <t>To open the door, pull the door handle. /
 I haven't opened the box yet. /
-Open the door … quietly! (Z)</t>
-  </si>
-  <si>
-    <t>bounce</t>
-  </si>
-  <si>
-    <t>...bouncing on the chairs.</t>
-  </si>
-  <si>
-    <t>slid</t>
-  </si>
-  <si>
-    <t>...sliding down the stairs.</t>
-  </si>
-  <si>
-    <t>I don't care who was picked. /
-There are hundreds in the garden picking all the flowers. (Z)</t>
-  </si>
-  <si>
-    <t>To start the car, you need to turn the key or push the button. / ...And lots in the bathrooms turning on the showers. (Z)</t>
-  </si>
-  <si>
-    <t>More of them and more of them, appearing everywhere! (Z)</t>
-  </si>
-  <si>
-    <t>frighten</t>
-  </si>
-  <si>
-    <t>I'm frightened. /
-Why are you frightened?</t>
-  </si>
-  <si>
-    <t>cry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He's crying. / Why are you crying? </t>
-  </si>
-  <si>
-    <t>Reach us and we'll provide everything you need. /
-Because I can't reach the apple. (Z) /
-Why can't you reach the apple? (Z) /
-I can reach the apple. (Z)</t>
-  </si>
-  <si>
-    <t>She run in the park every morning. /
-Can you run? (Z) / Now I can run. (Z) /
-Run downstairs… quickly! (Z) /
-I can run away. (Z)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">He stopped smoking. /
-He stopped to smoke. /
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Stop it!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Z) Stop the computer! (Z) /
-I can't stop it. (Z) / I can stop it. (Z) /
-I can stop Corvax. (Z)</t>
-    </r>
-  </si>
-  <si>
-    <t>beg</t>
-  </si>
-  <si>
-    <t>Oh, I beg your pardon.</t>
-  </si>
-  <si>
-    <t>I was happy to help. /
-Help me! (Z) Help the Queen. (Z) /
-But he can't help! (Z)/ I can help. (Z)</t>
-  </si>
-  <si>
-    <t>wake up</t>
-  </si>
-  <si>
-    <t>wake up!</t>
-  </si>
-  <si>
-    <t>I can't stand him. /
-They stood in line to buy tickets. /
-Stand there! (Z)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I'd like to try it. /
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Let me try again.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Z) Now try this. (Z)</t>
-    </r>
-  </si>
-  <si>
-    <t>They left the party early. /
-The money was left on the table. /
-Yesterday I left my car keys at home. /
-And that leaves… Me! (Z)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">He said something funny and went home. /
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Go away!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Z) /
-I'm going to bed. (Z) /
-Where are you going? (Z)
-I'm going to the swimming pool. (Z)
-I'm going to the tennis court. (Z) /
-On Friday I go swimming. (Z) /
-When do you go swimming? (Z) /
-Go and see … quick! (Z)/ This goes here. (Z) / It goes in here. (Z) / They're going (into the computer). (Z) There goes a red one. There goes a blue. (Z) /That goes in there. (Z) /This goes up here. (Z) / Now I'm going away. (Z)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I came home at 6 and left at 7. /
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Where do you come from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Z)? /
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Come here!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Z) Come back! (Z) /
-Somebody's coming. (Z) / I'm coming. (Z) /
-Where are they all coming from? (Z)/
-They're coming from Corvax's room upstairs. (Z) Come on! (Z) Come in. (Z) /
-Please come back some day. (Z)
-</t>
-    </r>
-  </si>
-  <si>
-    <t>You are welcome. / 
-I welcome your decision. /
-They welcomed changes. /
-Welcome to Gondoland. (Z)</t>
-  </si>
-  <si>
-    <t>I was told to keep playing. /
-Tell me. (Z) /</t>
-  </si>
-  <si>
-    <t>I'm waiting for him to come. /
-He waited for it to start. /
-He wasn't waited for. /
-Wait over there! (Z)
-Bob's waiting. (Z) Wait a moment! (Z) /
-Wait and see. (Z)</t>
-  </si>
-  <si>
-    <t>He says he doesn't know the address. /
-We're saying goodbye to you. (Z) /
-This clock here says quarter to three. (Z)/
-What does it say here? (Z)</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>She knew he was there. /
-Do we know each other? /
-I don't know. (Z) / I know you. (Z)</t>
-  </si>
-  <si>
-    <t>Yesterday the salad was made of cabbage. / Corvax is making a cake. (Z) /
-I'm making a cake. (Z)</t>
-  </si>
-  <si>
-    <t>I hate this job. I hate work. I hate Bob.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">I like grapes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Z)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I like humburgers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Z). / 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I don't like it</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Z). / I don't like you (Z). /
-He likes clocks. (Z) / I don't like this job (Z).
-What food does he like? (Z)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">She made a delicious cake and we ate it (up) together. / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eat it!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Z) /
-Muzzy, why do you eat clocks? (Z) /
-Why are you eating that? (Z) Does he eat clocks? (Z) Mussy eats clocks. (Z)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I've seen them today. /
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>See you!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (at seven)(this evening) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(Z) /
-See you at ten o'clock. (Z) /See you at the party! (Z)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">I can't see you </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(Z).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Can you see me?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Z) / I can see. (Z) I see. (Z) It is nice to see you. (Z) Glad to see you again. (Z)</t>
-    </r>
-  </si>
-  <si>
-    <t>bite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does she often bite people?
-She doesn't often bite people.
-She always bites me. 
-Now she's biting me. </t>
-  </si>
-  <si>
-    <t>I don't care what he's wearing. /
-I haven't worn this T-shirt yet. /
-I'm wearing trousers. (Z)
-I'm wearing a skirt. (Z)
-I always wear trousers. (Z)
-I usually wear a skirt. (Z)
-I never wear a skirt. (Z)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I have taken the money. /
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Take him away!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Z). /
-Take this. (Z) / Take all those away! (Z). /
-He often takes them off. (Z)</t>
-    </r>
-  </si>
-  <si>
-    <t>They brought snacks to the party. /
-The dog always brings them back.</t>
-  </si>
-  <si>
-    <t>I need a drink. / 
-You need to drink. /
-What do we need? (Z) Do we need any salt? (Z) I need flour, sugar … (Z)
-I need help. (Z) He can help you. (Z) We don't need any pepper. (Z)</t>
-  </si>
-  <si>
-    <t>She wanted to create and produce something new. /
-I want some rice. (Z) 
-Do you want any cheese? (Z)</t>
-  </si>
-  <si>
-    <t>Black and white looks all right. (Z) /
-Look around … carefully! (Z) /
-Look at the book. (Z)</t>
-  </si>
-  <si>
-    <t>The message was read only in the morning. /
-Read it! (Z) You can't read.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I knew him when we were kids. /
-I have been </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> this restaurant. /
-Where are you? (Z) / Who are you? (Z) /
-How are you (now)? / Are you all right? (Z) /
-Be careful! (Z) Where am I? (Z) Why am I here? (Z) Who am I? (Z) Be good. (Z) Don't be stupid. (Z)</t>
-    </r>
+Open the door … quietly! (Z) Open the other door. (Z) Someone's opening the door. (Z) Someone opened that door. (Z) I opened the door. (Z)</t>
+  </si>
+  <si>
+    <t>He says he has found his lost wallet. /
+Have you found your keys yet? /
+We can't find Amanda anywhere. (z) / Find them! (Z)</t>
+  </si>
+  <si>
+    <t>He's listening. (Z) Well, I listened to the clock. (Z / 
+Listen to me! (Z)</t>
+  </si>
+  <si>
+    <t>shout</t>
+  </si>
+  <si>
+    <t>Please don't shout and scream.</t>
+  </si>
+  <si>
+    <t>She let her brother take her car. /
+So let's all sing a song. (Z)
+Let's have fun! (Z) Let's go (quickly)! (Z)Let's go quietly! (Z)Let's go carefully. (Z)Let's go to the river (Z) Let's be quiet! (Z) Let's be calm! (Z) Let's start now. (Z) Let's get Amanda back! (Z)</t>
   </si>
   <si>
     <r>
@@ -4754,8 +4447,23 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Z). / I've got this for you. (Z) /We've got a surprise for you. (Z) / Have you got any clocks? (Z)  Have you got any rice? (Z) I haven't got any rice, but... (Z) It's getting dark. (Z) (In autumn) It gets dark at seven.(Z) / We've got him. (Z) Now get some sugar and some eggs (Z) Get on with your work! (Z) Get some plates. (Z)</t>
+      <t xml:space="preserve"> (Z). / I've got this for you. (Z) /We've got a surprise for you. (Z) / Have you got any clocks? (Z)  Have you got any rice? (Z) I haven't got any rice, but... (Z) It's getting dark. (Z) (In autumn) It gets dark at seven.(Z) / We've got him. (Z) Now get some sugar and some eggs (Z) Get on with your work! (Z) Get some plates. (Z) Get into the boot. (Z) Corvax has got it. (Z)</t>
     </r>
+  </si>
+  <si>
+    <t>He was taught (how) to play the piano when he was a kid. /
+He taught me (how) to play the guitar. /
+But I can teach her… everything. (Z)</t>
+  </si>
+  <si>
+    <t>I learned (how) to swim by myself. /
+I learned about the accident in the morning./ She can learn everything from me. (Z)</t>
+  </si>
+  <si>
+    <t>marry</t>
+  </si>
+  <si>
+    <t>I want to marry her.</t>
   </si>
   <si>
     <r>
@@ -4782,20 +4490,484 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (Z)/ What are you doing? (Z) / She's doing her exercises. (Z) On Thursday I do my exercises. (Z) / I'm not doing anything. (Z) Don't do that! (Z) /
-What can I do? (Z) Can I do that? (Z)</t>
+What can I do? (Z) Can I do that? (Z) Don't do that! (Z)</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He said something funny and went home. /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Go away!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Z) /
+I'm going to bed. (Z) /
+Where are you going? (Z)
+I'm going to the swimming pool. (Z)
+I'm going to the tennis court. (Z) /
+On Friday I go swimming. (Z) /
+When do you go swimming? (Z) /
+Go and see … quick! (Z)/ This goes here. (Z) / It goes in here. (Z) / They're going (into the computer). (Z) There goes a red one. There goes a blue. (Z) /That goes in there. (Z) /This goes up here. (Z) / Now I'm going away. (Z) Where's Amanda going? (Z) She went through that door. (Z) She went that way (Z). I went upstairs (Z) Go right! (Z) Now go straight on. (Z)</t>
+    </r>
+  </si>
+  <si>
+    <t>Count the flowers!</t>
+  </si>
+  <si>
+    <t>He ran as fast as he could to catch the bus. / We can catch them. (Z)
+Did you catch them? (Z)</t>
+  </si>
+  <si>
+    <t>I put the keys in my pocket. /
+I put the book on the shelf and left. /
+Put those clocks down (Z). Put some roses on the cake. (Z) I'm putting this on the top. (Z) Put it down (gently). (Z) They put him in prison. (Z)</t>
+  </si>
+  <si>
+    <t>She wanted to create and produce something new. /
+I want some rice. (Z) 
+Do you want any cheese? (Z)
+I want to marry her. (Z)
+I wanted to marry her. (Z)
+I want to be the King. (Z)</t>
+  </si>
+  <si>
+    <t>Yesterday the salad was made of cabbage. / Corvax is making a cake. (Z) /
+I'm making a cake. (Z) Did you make them? (Z) The computer made them. (Z)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I knew him when we were kids. /
+I have been </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> this restaurant. /
+Where are you? (Z) / Who are you? (Z) /
+How are you (now)? / Are you all right? (Z) /
+Be careful! (Z) Where am I? (Z) Why am I here? (Z) Who am I? (Z) Be good. (Z) Don't be stupid. (Z)Don't be silly. (Z) He was here. (Z) Be calm! (Z) Be quiet! (Z) Were you here this morning? (Z) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I heard some noise outside at night. /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Can you hear me? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Z) / I can hear. (Z) I can't hear anyone. (Z) I can hear someone. (Z) We heard a funny noise. (Z)</t>
+    </r>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>I can swim. I can't swim.</t>
+  </si>
+  <si>
+    <t>The boat's sinking. (Z) The boat sank.</t>
+  </si>
+  <si>
+    <t>shut</t>
+  </si>
+  <si>
+    <t>Shut up!</t>
+  </si>
+  <si>
+    <t>Black and white looks all right. (Z) /
+Look around … carefully! (Z) /
+Look at the book. (Z)
+Look outside! (Z)
+Now he's looking at the clock… (Z) /
+Then I looked at it. (Z) It looks like a boat. (Z)</t>
+  </si>
+  <si>
+    <t>I worry about you. /
+I didn't want to worry Mum. /
+Don't worry! (Z)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He stopped smoking. /
+He stopped to smoke. /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stop it!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Z) Stop the computer! (Z) /
+I can't stop it. (Z) / I can stop it. (Z) /
+I can stop Corvax. (Z) We can't stop now. (Z)</t>
+    </r>
+  </si>
+  <si>
+    <t>He thought it was a good idea. /
+Have you thought about it? /
+What do you think? (Z)</t>
+  </si>
+  <si>
+    <t>He felt tired after jogging and decided to walk a little. /
+I simetimes felt I was followed and watched. /
+Feel free to reach us if you require any info(rmation). /
+Feeling better? / I'm not feeling well. (Z)</t>
+  </si>
+  <si>
+    <t>He stayed at home. /
+Stay in your room, dear, and have a rest. (Z)
+Stay here. (Z)</t>
+  </si>
+  <si>
+    <t>mend</t>
+  </si>
+  <si>
+    <t>Are you going to mend the clock?</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>I phoned the King and Queen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No entry (Z) </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I like grapes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Z)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I like humburgers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Z). / 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I don't like it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Z). / I don't like you (Z). /
+He likes clocks. (Z) / I don't like this job (Z).
+What food does he like? (Z) I like driving (Z)</t>
+    </r>
+  </si>
+  <si>
+    <t>We wrote a note and left. /
+I'm writing it down. (Z) Did you write it down? (Z) I wrote it down. (Z)</t>
+  </si>
+  <si>
+    <t>press</t>
+  </si>
+  <si>
+    <t>Now press that switch.</t>
+  </si>
+  <si>
+    <t>To start the car, you need to turn the key or push the button. / ...And lots in the bathrooms turning on the showers. (Z)
+Turn that handle (Z)</t>
+  </si>
+  <si>
+    <t>They brought snacks to the party. /
+The dog always brings them back. /
+Did you bring my black box? (Z)</t>
+  </si>
+  <si>
+    <t>Can you pull it out? /
+The child was pulled out of the water. /
+She's pulling the plug out. (Z)
+Then you pull the handle. (Z)</t>
+  </si>
+  <si>
+    <t>She is working. /
+Is it still working? (Z) Yes. It's working. (Z)
+Your clock's working. (Z)
+How does it work? (Z)
+How does this work? (Z)</t>
+  </si>
+  <si>
+    <t>pour</t>
+  </si>
+  <si>
+    <t>Pour the milk into the bottle. 
+I am pouring it.</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>Warm the milk.</t>
+  </si>
+  <si>
+    <t>I gave her the keys but she lost them. /
+I'm going to give it to the baby. (Z)</t>
+  </si>
+  <si>
+    <t>He was asked about the lost money. /
+We can ask someone.(Z)</t>
+  </si>
+  <si>
+    <t>I suppose you're laughing at me. /
+I'll be laughed at. /
+Don't laugh! It isn't funny. (Z)</t>
+  </si>
+  <si>
+    <t>She has (already) understood everything. /
+She doesn't understand you. (Z)</t>
+  </si>
+  <si>
+    <t>Who lives there? (Z) 
+Who lives in the house? (Z) 
+No one lives there. (Z)
+He doesn't live here. (Z)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Can you walk?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Z) I can walk. (Z) 
+He walks like this. (Z) </t>
+    </r>
+  </si>
+  <si>
+    <t>I don't care what he's wearing. /
+I haven't worn this T-shirt yet. /
+I'm wearing trousers. (Z)
+I'm wearing a skirt. (Z)
+I always wear trousers. (Z)
+I usually wear a skirt. (Z)
+I never wear a skirt. (Z)
+He wears funny hats. (Z)</t>
+  </si>
+  <si>
+    <t>lift</t>
+  </si>
+  <si>
+    <t>Lift the Queen up.</t>
+  </si>
+  <si>
+    <t>You carry the baby. (Z) You can carry them. (Z) You carry something. (Z) 
+Carry her through! (Z)</t>
+  </si>
+  <si>
+    <t>argue</t>
+  </si>
+  <si>
+    <t>Don't argue! I'm not arguing.</t>
+  </si>
+  <si>
+    <t>Does she often bite people?
+She doesn't often bite people.
+She always bites me. 
+Now she's biting me. She bit me.
+Someone bit you.</t>
+  </si>
+  <si>
+    <t>She meant what she said. /
+What does this mean? (Z)
+It means It's dangerous. (Z)
+What do you mean? (Z)</t>
+  </si>
+  <si>
+    <t>I expect (that) the job will be finished in time. /
+I guess the job won't be finished in time. /
+We finished it yesterday. (Z)</t>
+  </si>
+  <si>
+    <t>есть оператор в  python</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4916,25 +5088,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5219,17 +5401,17 @@
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="41.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" style="2" customWidth="1"/>
@@ -5257,7 +5439,7 @@
         <v>1062</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>1061</v>
@@ -5289,13 +5471,13 @@
         <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J2">
         <v>565</v>
@@ -5322,10 +5504,10 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="7" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="I3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J3" s="6">
         <v>3065</v>
@@ -5351,13 +5533,13 @@
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="I4" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J4">
         <v>643</v>
@@ -5383,11 +5565,11 @@
         <v>20</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J5">
         <v>354</v>
@@ -5413,11 +5595,11 @@
         <v>25</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>1182</v>
+        <v>1167</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J6">
         <v>398</v>
@@ -5445,7 +5627,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
       <c r="I7" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J7">
         <v>348</v>
@@ -5471,11 +5653,11 @@
         <v>35</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1236</v>
+        <v>1211</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J8">
         <v>685</v>
@@ -5501,13 +5683,13 @@
         <v>40</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J9">
         <v>927</v>
@@ -5517,27 +5699,27 @@
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>1162</v>
+        <v>1294</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J10">
         <v>140</v>
@@ -5569,13 +5751,13 @@
         <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J11" s="6">
         <v>1227</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="126" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="157.5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
@@ -5595,7 +5777,7 @@
         <v>58</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" t="s">
@@ -5657,7 +5839,7 @@
         <v>70</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" t="s">
@@ -5687,7 +5869,7 @@
         <v>76</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" t="s">
@@ -5717,11 +5899,11 @@
         <v>81</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J16">
         <v>197</v>
@@ -5751,7 +5933,7 @@
       </c>
       <c r="H17" s="4"/>
       <c r="I17" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J17">
         <v>1150</v>
@@ -5777,7 +5959,7 @@
         <v>87</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>88</v>
@@ -5789,7 +5971,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>89</v>
       </c>
@@ -5809,7 +5991,7 @@
         <v>93</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>1269</v>
+        <v>1286</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" t="s">
@@ -5895,7 +6077,7 @@
         <v>109</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" t="s">
@@ -5925,11 +6107,11 @@
         <v>114</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J23">
         <v>92</v>
@@ -5955,17 +6137,17 @@
         <v>119</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>1176</v>
+        <v>1163</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J24">
         <v>287</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>120</v>
       </c>
@@ -5984,16 +6166,18 @@
       <c r="F25" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>1302</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J25">
         <v>539</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>125</v>
       </c>
@@ -6013,7 +6197,7 @@
         <v>129</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>1155</v>
+        <v>1259</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" t="s">
@@ -6045,7 +6229,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="4"/>
       <c r="I27" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J27">
         <v>356</v>
@@ -6071,11 +6255,11 @@
         <v>139</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J28">
         <v>143</v>
@@ -6105,7 +6289,7 @@
         <v>145</v>
       </c>
       <c r="I29" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J29">
         <v>468</v>
@@ -6131,13 +6315,13 @@
         <v>150</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>1187</v>
+        <v>1171</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>151</v>
       </c>
       <c r="I30" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J30">
         <v>476</v>
@@ -6163,7 +6347,7 @@
         <v>157</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>1163</v>
+        <v>1150</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" t="s">
@@ -6193,11 +6377,11 @@
         <v>162</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>1169</v>
+        <v>1156</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J32">
         <v>2169</v>
@@ -6222,16 +6406,18 @@
       <c r="F33" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>1240</v>
+      </c>
       <c r="H33" s="4"/>
       <c r="I33" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J33">
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="157.5" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>168</v>
       </c>
@@ -6251,7 +6437,7 @@
         <v>172</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>173</v>
@@ -6285,7 +6471,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="4"/>
       <c r="I35" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J35">
         <v>975</v>
@@ -6311,11 +6497,11 @@
         <v>183</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>1192</v>
+        <v>1176</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J36">
         <v>1326</v>
@@ -6341,11 +6527,11 @@
         <v>188</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J37">
         <v>459</v>
@@ -6373,7 +6559,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="4"/>
       <c r="I38" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J38">
         <v>307</v>
@@ -6403,7 +6589,7 @@
         <v>228</v>
       </c>
       <c r="I39" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J39">
         <v>432</v>
@@ -6433,7 +6619,7 @@
       </c>
       <c r="H40" s="4"/>
       <c r="I40" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J40">
         <v>1121</v>
@@ -6461,7 +6647,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="4"/>
       <c r="I41" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J41">
         <v>473</v>
@@ -6489,7 +6675,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="4"/>
       <c r="I42" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J42">
         <v>422</v>
@@ -6545,11 +6731,11 @@
         <v>223</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J44">
         <v>381</v>
@@ -6577,7 +6763,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="4"/>
       <c r="I45" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J45">
         <v>623</v>
@@ -6605,7 +6791,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="4"/>
       <c r="I46" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J46">
         <v>795</v>
@@ -6633,7 +6819,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="4"/>
       <c r="I47" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J47">
         <v>554</v>
@@ -6661,7 +6847,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="4"/>
       <c r="I48" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J48">
         <v>431</v>
@@ -6689,7 +6875,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="4"/>
       <c r="I49" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J49">
         <v>1197</v>
@@ -6719,13 +6905,13 @@
       </c>
       <c r="H50" s="4"/>
       <c r="I50" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J50">
         <v>2645</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>249</v>
       </c>
@@ -6745,7 +6931,7 @@
         <v>254</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>1276</v>
+        <v>1256</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" t="s">
@@ -6775,7 +6961,7 @@
         <v>260</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" t="s">
@@ -6835,7 +7021,7 @@
         <v>272</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>1166</v>
+        <v>1153</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" t="s">
@@ -6865,17 +7051,17 @@
         <v>277</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>1180</v>
+        <v>1166</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J55">
         <v>638</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="78.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>278</v>
       </c>
@@ -6895,7 +7081,7 @@
         <v>283</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" t="s">
@@ -6925,11 +7111,11 @@
         <v>288</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>1203</v>
+        <v>1187</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J57">
         <v>163</v>
@@ -6955,11 +7141,11 @@
         <v>293</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>1183</v>
+        <v>1168</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J58">
         <v>678</v>
@@ -6985,9 +7171,11 @@
         <v>298</v>
       </c>
       <c r="G59" s="3"/>
-      <c r="H59" s="4"/>
+      <c r="H59" s="13" t="s">
+        <v>1280</v>
+      </c>
       <c r="I59" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J59">
         <v>1237</v>
@@ -7013,11 +7201,11 @@
         <v>303</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>1185</v>
+        <v>1169</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J60">
         <v>815</v>
@@ -7043,11 +7231,11 @@
         <v>308</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>1165</v>
+        <v>1152</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J61">
         <v>338</v>
@@ -7077,7 +7265,7 @@
       </c>
       <c r="H62" s="4"/>
       <c r="I62" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J62">
         <v>370</v>
@@ -7105,7 +7293,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="4"/>
       <c r="I63" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J63">
         <v>603</v>
@@ -7133,7 +7321,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="4"/>
       <c r="I64" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J64">
         <v>373</v>
@@ -7163,7 +7351,7 @@
       </c>
       <c r="H65" s="4"/>
       <c r="I65" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J65">
         <v>857</v>
@@ -7189,7 +7377,7 @@
         <v>334</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>335</v>
@@ -7221,7 +7409,7 @@
         <v>340</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>1224</v>
+        <v>1274</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>341</v>
@@ -7285,13 +7473,13 @@
         <v>352</v>
       </c>
       <c r="I69" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J69">
         <v>819</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="63" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>353</v>
       </c>
@@ -7311,7 +7499,7 @@
         <v>357</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>1161</v>
+        <v>1246</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>358</v>
@@ -7323,7 +7511,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="63" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>359</v>
       </c>
@@ -7343,11 +7531,11 @@
         <v>363</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>1184</v>
+        <v>1307</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J71">
         <v>566</v>
@@ -7377,7 +7565,7 @@
       </c>
       <c r="H72" s="4"/>
       <c r="I72" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J72">
         <v>1089</v>
@@ -7403,7 +7591,7 @@
         <v>374</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>1174</v>
+        <v>1161</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>375</v>
@@ -7435,13 +7623,13 @@
         <v>380</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>1197</v>
+        <v>1181</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>381</v>
       </c>
       <c r="I74" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J74">
         <v>521</v>
@@ -7467,11 +7655,11 @@
         <v>386</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J75">
         <v>419</v>
@@ -7497,7 +7685,7 @@
         <v>392</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>1201</v>
+        <v>1185</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" t="s">
@@ -7531,13 +7719,13 @@
       </c>
       <c r="H77" s="4"/>
       <c r="I77" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J77">
         <v>490</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="173.25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="189" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>398</v>
       </c>
@@ -7557,7 +7745,7 @@
         <v>402</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>1275</v>
+        <v>1251</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>403</v>
@@ -7569,7 +7757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>404</v>
       </c>
@@ -7589,7 +7777,7 @@
         <v>409</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>1129</v>
+        <v>1293</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>410</v>
@@ -7601,7 +7789,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="236.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="283.5" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>411</v>
       </c>
@@ -7621,7 +7809,7 @@
         <v>416</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>1252</v>
+        <v>1257</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>417</v>
@@ -7657,7 +7845,7 @@
       </c>
       <c r="H81" s="4"/>
       <c r="I81" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J81">
         <v>1954</v>
@@ -7683,7 +7871,7 @@
         <v>428</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>429</v>
@@ -7715,13 +7903,13 @@
         <v>434</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>1204</v>
+        <v>1188</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>435</v>
       </c>
       <c r="I83" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J83">
         <v>315</v>
@@ -7747,17 +7935,17 @@
         <v>440</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J84">
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="110.25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="141.75" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>441</v>
       </c>
@@ -7777,7 +7965,7 @@
         <v>445</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>1222</v>
+        <v>1244</v>
       </c>
       <c r="H85" s="4"/>
       <c r="I85" t="s">
@@ -7787,7 +7975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="63" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>446</v>
       </c>
@@ -7807,7 +7995,7 @@
         <v>450</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>1213</v>
+        <v>1264</v>
       </c>
       <c r="H86" s="4"/>
       <c r="I86" t="s">
@@ -7837,11 +8025,11 @@
         <v>455</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>1246</v>
+        <v>1220</v>
       </c>
       <c r="H87" s="4"/>
       <c r="I87" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J87">
         <v>165</v>
@@ -7895,7 +8083,7 @@
         <v>465</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>1198</v>
+        <v>1182</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>466</v>
@@ -7929,7 +8117,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="4"/>
       <c r="I90" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J90">
         <v>266</v>
@@ -7985,13 +8173,13 @@
         <v>480</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>1190</v>
+        <v>1174</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>481</v>
       </c>
       <c r="I92" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J92">
         <v>747</v>
@@ -8019,7 +8207,7 @@
       <c r="G93" s="3"/>
       <c r="H93" s="4"/>
       <c r="I93" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J93">
         <v>909</v>
@@ -8045,11 +8233,11 @@
         <v>491</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="H94" s="4"/>
       <c r="I94" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J94">
         <v>331</v>
@@ -8075,13 +8263,13 @@
         <v>496</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>1193</v>
+        <v>1177</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>497</v>
       </c>
       <c r="I95" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J95">
         <v>474</v>
@@ -8107,11 +8295,11 @@
         <v>502</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>1178</v>
+        <v>1165</v>
       </c>
       <c r="H96" s="4"/>
       <c r="I96" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J96">
         <v>385</v>
@@ -8137,11 +8325,11 @@
         <v>507</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>1177</v>
+        <v>1164</v>
       </c>
       <c r="H97" s="4"/>
       <c r="I97" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J97">
         <v>264</v>
@@ -8167,7 +8355,7 @@
         <v>512</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>1202</v>
+        <v>1186</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>513</v>
@@ -8199,11 +8387,11 @@
         <v>518</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>1164</v>
+        <v>1151</v>
       </c>
       <c r="H99" s="4"/>
       <c r="I99" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J99">
         <v>382</v>
@@ -8229,7 +8417,7 @@
         <v>524</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>1259</v>
+        <v>1229</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" t="s">
@@ -8239,7 +8427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>525</v>
       </c>
@@ -8259,13 +8447,13 @@
         <v>529</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>1179</v>
+        <v>1295</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>530</v>
       </c>
       <c r="I101" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J101">
         <v>139</v>
@@ -8331,7 +8519,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="63" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>537</v>
       </c>
@@ -8351,7 +8539,7 @@
         <v>541</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>1116</v>
+        <v>1253</v>
       </c>
       <c r="H104" s="4"/>
       <c r="I104" t="s">
@@ -8381,7 +8569,7 @@
         <v>546</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>1251</v>
+        <v>1225</v>
       </c>
       <c r="H105" s="4"/>
       <c r="I105" t="s">
@@ -8391,7 +8579,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>547</v>
       </c>
@@ -8411,7 +8599,7 @@
         <v>550</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>1137</v>
+        <v>1250</v>
       </c>
       <c r="H106" s="4"/>
       <c r="I106" t="s">
@@ -8450,7 +8638,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="78.75" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>557</v>
       </c>
@@ -8470,17 +8658,17 @@
         <v>561</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>1262</v>
+        <v>1281</v>
       </c>
       <c r="H108" s="4"/>
       <c r="I108" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J108">
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>562</v>
       </c>
@@ -8499,18 +8687,20 @@
       <c r="F109" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="G109" s="3"/>
+      <c r="G109" s="3" t="s">
+        <v>1247</v>
+      </c>
       <c r="H109" s="4" t="s">
         <v>567</v>
       </c>
       <c r="I109" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J109">
         <v>342</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="63" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>568</v>
       </c>
@@ -8529,18 +8719,20 @@
       <c r="F110" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="G110" s="3"/>
+      <c r="G110" s="3" t="s">
+        <v>1297</v>
+      </c>
       <c r="H110" s="4" t="s">
         <v>573</v>
       </c>
       <c r="I110" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J110">
         <v>173</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>574</v>
       </c>
@@ -8560,13 +8752,13 @@
         <v>578</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>579</v>
       </c>
       <c r="I111" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J111">
         <v>76</v>
@@ -8620,17 +8812,17 @@
         <v>589</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>1209</v>
+        <v>1193</v>
       </c>
       <c r="H113" s="4"/>
       <c r="I113" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J113">
         <v>241</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="63" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>590</v>
       </c>
@@ -8650,7 +8842,7 @@
         <v>594</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>595</v>
@@ -8686,7 +8878,7 @@
       </c>
       <c r="H115" s="4"/>
       <c r="I115" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J115">
         <v>856</v>
@@ -8712,17 +8904,17 @@
         <v>605</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H116" s="4"/>
       <c r="I116" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J116">
         <v>339</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="63" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>606</v>
       </c>
@@ -8742,7 +8934,7 @@
         <v>610</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>1136</v>
+        <v>1306</v>
       </c>
       <c r="H117" s="4"/>
       <c r="I117" t="s">
@@ -8772,7 +8964,7 @@
         <v>615</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="H118" s="4"/>
       <c r="I118" t="s">
@@ -8802,11 +8994,11 @@
         <v>620</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>1173</v>
+        <v>1160</v>
       </c>
       <c r="H119" s="4"/>
       <c r="I119" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J119">
         <v>485</v>
@@ -8832,11 +9024,11 @@
         <v>625</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>1200</v>
+        <v>1184</v>
       </c>
       <c r="H120" s="4"/>
       <c r="I120" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J120">
         <v>620</v>
@@ -8862,11 +9054,11 @@
         <v>630</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="H121" s="4"/>
       <c r="I121" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J121">
         <v>193</v>
@@ -8892,11 +9084,11 @@
         <v>635</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="H122" s="4"/>
       <c r="I122" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J122">
         <v>228</v>
@@ -8922,11 +9114,11 @@
         <v>640</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>1270</v>
+        <v>1232</v>
       </c>
       <c r="H123" s="4"/>
       <c r="I123" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J123">
         <v>102</v>
@@ -8952,11 +9144,11 @@
         <v>645</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>1172</v>
+        <v>1159</v>
       </c>
       <c r="H124" s="4"/>
       <c r="I124" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J124">
         <v>774</v>
@@ -8982,19 +9174,19 @@
         <v>650</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="H125" s="4" t="s">
         <v>651</v>
       </c>
       <c r="I125" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J125">
         <v>517</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>652</v>
       </c>
@@ -9014,11 +9206,11 @@
         <v>656</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>1229</v>
+        <v>1245</v>
       </c>
       <c r="H126" s="4"/>
       <c r="I126" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J126">
         <v>284</v>
@@ -9044,11 +9236,11 @@
         <v>661</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>1205</v>
+        <v>1189</v>
       </c>
       <c r="H127" s="4"/>
       <c r="I127" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J127">
         <v>448</v>
@@ -9074,7 +9266,7 @@
         <v>666</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>1207</v>
+        <v>1191</v>
       </c>
       <c r="H128" s="4"/>
       <c r="I128" t="s">
@@ -9104,13 +9296,13 @@
         <v>671</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>1234</v>
+        <v>1210</v>
       </c>
       <c r="H129" s="4" t="s">
         <v>672</v>
       </c>
       <c r="I129" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J129">
         <v>408</v>
@@ -9140,7 +9332,7 @@
       </c>
       <c r="H130" s="4"/>
       <c r="I130" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J130">
         <v>160</v>
@@ -9166,11 +9358,11 @@
         <v>682</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>1228</v>
+        <v>1205</v>
       </c>
       <c r="H131" s="4"/>
       <c r="I131" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J131">
         <v>166</v>
@@ -9178,29 +9370,29 @@
     </row>
     <row r="132" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>1109</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="C132" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G132" s="3" t="s">
         <v>1110</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>1113</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>1114</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>1111</v>
       </c>
       <c r="H132" s="4"/>
       <c r="I132" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J132">
         <v>705</v>
@@ -9228,7 +9420,7 @@
       <c r="G133" s="3"/>
       <c r="H133" s="4"/>
       <c r="I133" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J133">
         <v>655</v>
@@ -9254,11 +9446,11 @@
         <v>692</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>1196</v>
+        <v>1180</v>
       </c>
       <c r="H134" s="4"/>
       <c r="I134" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J134">
         <v>757</v>
@@ -9284,17 +9476,17 @@
         <v>697</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>1175</v>
+        <v>1162</v>
       </c>
       <c r="H135" s="4"/>
       <c r="I135" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J135">
         <v>452</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" ht="63" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>698</v>
       </c>
@@ -9314,17 +9506,17 @@
         <v>702</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>1181</v>
+        <v>1287</v>
       </c>
       <c r="H136" s="4"/>
       <c r="I136" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J136">
         <v>594</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="60" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>703</v>
       </c>
@@ -9344,17 +9536,19 @@
         <v>707</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H137" s="4"/>
+        <v>1179</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>1235</v>
+      </c>
       <c r="I137" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J137">
         <v>601</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>708</v>
       </c>
@@ -9374,7 +9568,7 @@
         <v>711</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>1135</v>
+        <v>1260</v>
       </c>
       <c r="H138" s="4" t="s">
         <v>712</v>
@@ -9386,7 +9580,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="30" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>713</v>
       </c>
@@ -9406,9 +9600,11 @@
         <v>717</v>
       </c>
       <c r="G139" s="3"/>
-      <c r="H139" s="4"/>
+      <c r="H139" s="14" t="s">
+        <v>1308</v>
+      </c>
       <c r="I139" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J139">
         <v>438</v>
@@ -9434,11 +9630,11 @@
         <v>722</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>1241</v>
+        <v>1216</v>
       </c>
       <c r="H140" s="4"/>
       <c r="I140" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J140">
         <v>583</v>
@@ -9464,7 +9660,7 @@
         <v>727</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>1273</v>
+        <v>1233</v>
       </c>
       <c r="H141" s="4"/>
       <c r="I141" t="s">
@@ -9494,11 +9690,11 @@
         <v>732</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>1186</v>
+        <v>1170</v>
       </c>
       <c r="H142" s="4"/>
       <c r="I142" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J142">
         <v>578</v>
@@ -9524,11 +9720,11 @@
         <v>736</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="H143" s="4"/>
       <c r="I143" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J143">
         <v>690</v>
@@ -9556,7 +9752,7 @@
       <c r="G144" s="3"/>
       <c r="H144" s="4"/>
       <c r="I144" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J144">
         <v>850</v>
@@ -9584,7 +9780,7 @@
       <c r="G145" s="3"/>
       <c r="H145" s="4"/>
       <c r="I145" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J145">
         <v>890</v>
@@ -9610,11 +9806,11 @@
         <v>751</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>1167</v>
+        <v>1154</v>
       </c>
       <c r="H146" s="4"/>
       <c r="I146" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J146">
         <v>645</v>
@@ -9644,7 +9840,7 @@
       </c>
       <c r="H147" s="4"/>
       <c r="I147" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J147">
         <v>618</v>
@@ -9672,7 +9868,7 @@
       <c r="G148" s="3"/>
       <c r="H148" s="4"/>
       <c r="I148" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J148">
         <v>229</v>
@@ -9698,11 +9894,11 @@
         <v>766</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H149" s="4"/>
       <c r="I149" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J149">
         <v>1377</v>
@@ -9732,7 +9928,7 @@
       </c>
       <c r="H150" s="4"/>
       <c r="I150" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J150">
         <v>811</v>
@@ -9758,11 +9954,11 @@
         <v>776</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>1194</v>
+        <v>1178</v>
       </c>
       <c r="H151" s="4"/>
       <c r="I151" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J151">
         <v>755</v>
@@ -9790,7 +9986,7 @@
       <c r="G152" s="3"/>
       <c r="H152" s="4"/>
       <c r="I152" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J152">
         <v>560</v>
@@ -9816,11 +10012,11 @@
         <v>786</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>1188</v>
+        <v>1172</v>
       </c>
       <c r="H153" s="4"/>
       <c r="I153" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J153">
         <v>1008</v>
@@ -9846,7 +10042,7 @@
         <v>791</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>1242</v>
+        <v>1217</v>
       </c>
       <c r="H154" s="4"/>
       <c r="I154" t="s">
@@ -9876,17 +10072,17 @@
         <v>796</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>1189</v>
+        <v>1173</v>
       </c>
       <c r="H155" s="4"/>
       <c r="I155" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J155">
         <v>538</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="63" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" ht="78.75" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>797</v>
       </c>
@@ -9906,7 +10102,7 @@
         <v>801</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>1257</v>
+        <v>1238</v>
       </c>
       <c r="H156" s="4"/>
       <c r="I156" t="s">
@@ -9916,7 +10112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="126" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" ht="157.5" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>802</v>
       </c>
@@ -9936,7 +10132,7 @@
         <v>807</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>1264</v>
+        <v>1234</v>
       </c>
       <c r="H157" s="4"/>
       <c r="I157" t="s">
@@ -9966,11 +10162,11 @@
         <v>812</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="H158" s="4"/>
       <c r="I158" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J158">
         <v>202</v>
@@ -9996,7 +10192,7 @@
         <v>817</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>1206</v>
+        <v>1190</v>
       </c>
       <c r="H159" s="4"/>
       <c r="I159" t="s">
@@ -10026,7 +10222,7 @@
         <v>822</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="H160" s="4"/>
       <c r="I160" t="s">
@@ -10058,7 +10254,7 @@
       <c r="G161" s="3"/>
       <c r="H161" s="4"/>
       <c r="I161" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J161">
         <v>610</v>
@@ -10081,10 +10277,10 @@
         <v>830</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="H162" s="4"/>
       <c r="I162" t="s">
@@ -10116,7 +10312,7 @@
       <c r="G163" s="3"/>
       <c r="H163" s="4"/>
       <c r="I163" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J163">
         <v>526</v>
@@ -10170,7 +10366,7 @@
         <v>846</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="H165" s="4"/>
       <c r="I165" t="s">
@@ -10228,11 +10424,11 @@
         <v>856</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>1199</v>
+        <v>1183</v>
       </c>
       <c r="H167" s="4"/>
       <c r="I167" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J167">
         <v>375</v>
@@ -10258,7 +10454,7 @@
         <v>862</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H168" s="4" t="s">
         <v>536</v>
@@ -10290,7 +10486,7 @@
         <v>867</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="H169" s="4"/>
       <c r="I169" t="s">
@@ -10320,7 +10516,7 @@
         <v>872</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>1249</v>
+        <v>1223</v>
       </c>
       <c r="H170" s="4" t="s">
         <v>410</v>
@@ -10352,17 +10548,17 @@
         <v>877</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>1171</v>
+        <v>1158</v>
       </c>
       <c r="H171" s="4"/>
       <c r="I171" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J171">
         <v>126</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" ht="63" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>878</v>
       </c>
@@ -10382,19 +10578,19 @@
         <v>881</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>1223</v>
+        <v>1275</v>
       </c>
       <c r="H172" s="4" t="s">
         <v>882</v>
       </c>
       <c r="I172" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J172">
         <v>319</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="78.75" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>883</v>
       </c>
@@ -10414,13 +10610,13 @@
         <v>887</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>1243</v>
+        <v>1272</v>
       </c>
       <c r="H173" s="4" t="s">
         <v>888</v>
       </c>
       <c r="I173" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J173">
         <v>312</v>
@@ -10450,7 +10646,7 @@
       </c>
       <c r="H174" s="4"/>
       <c r="I174" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J174">
         <v>400</v>
@@ -10480,7 +10676,7 @@
       </c>
       <c r="H175" s="4"/>
       <c r="I175" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J175">
         <v>549</v>
@@ -10506,11 +10702,11 @@
         <v>903</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H176" s="4"/>
       <c r="I176" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J176">
         <v>289</v>
@@ -10536,17 +10732,17 @@
         <v>908</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>1170</v>
+        <v>1157</v>
       </c>
       <c r="H177" s="4"/>
       <c r="I177" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J177">
         <v>388</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="63" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>909</v>
       </c>
@@ -10566,7 +10762,7 @@
         <v>914</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>1268</v>
+        <v>1239</v>
       </c>
       <c r="H178" s="4" t="s">
         <v>915</v>
@@ -10598,13 +10794,13 @@
         <v>920</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>1212</v>
+        <v>1195</v>
       </c>
       <c r="H179" s="4" t="s">
         <v>536</v>
       </c>
       <c r="I179" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J179">
         <v>82</v>
@@ -10634,13 +10830,13 @@
       </c>
       <c r="H180" s="4"/>
       <c r="I180" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J180">
         <v>1482</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" ht="63" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>926</v>
       </c>
@@ -10660,7 +10856,7 @@
         <v>930</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>1159</v>
+        <v>1252</v>
       </c>
       <c r="H181" s="4"/>
       <c r="I181" t="s">
@@ -10690,7 +10886,7 @@
         <v>935</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>1255</v>
+        <v>1227</v>
       </c>
       <c r="H182" s="4"/>
       <c r="I182" t="s">
@@ -10724,7 +10920,7 @@
       </c>
       <c r="H183" s="4"/>
       <c r="I183" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J183">
         <v>770</v>
@@ -10754,13 +10950,13 @@
       </c>
       <c r="H184" s="4"/>
       <c r="I184" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J184">
         <v>243</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>946</v>
       </c>
@@ -10780,7 +10976,7 @@
         <v>950</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>1150</v>
+        <v>1273</v>
       </c>
       <c r="H185" s="4"/>
       <c r="I185" t="s">
@@ -10810,7 +11006,7 @@
         <v>956</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>1168</v>
+        <v>1155</v>
       </c>
       <c r="H186" s="4"/>
       <c r="I186" t="s">
@@ -10842,7 +11038,7 @@
       <c r="G187" s="3"/>
       <c r="H187" s="4"/>
       <c r="I187" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J187">
         <v>843</v>
@@ -10872,7 +11068,7 @@
       </c>
       <c r="H188" s="4"/>
       <c r="I188" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J188">
         <v>608</v>
@@ -10900,7 +11096,7 @@
       <c r="G189" s="3"/>
       <c r="H189" s="4"/>
       <c r="I189" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J189">
         <v>831</v>
@@ -10926,19 +11122,19 @@
         <v>976</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>1250</v>
+        <v>1224</v>
       </c>
       <c r="H190" s="4" t="s">
         <v>977</v>
       </c>
       <c r="I190" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J190">
         <v>103</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" ht="63" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>978</v>
       </c>
@@ -10958,13 +11154,13 @@
         <v>982</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>1235</v>
+        <v>1285</v>
       </c>
       <c r="H191" s="4" t="s">
         <v>1056</v>
       </c>
       <c r="I191" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J191">
         <v>219</v>
@@ -10990,7 +11186,7 @@
         <v>987</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>1152</v>
+        <v>1296</v>
       </c>
       <c r="H192" s="4"/>
       <c r="I192" t="s">
@@ -11020,11 +11216,11 @@
         <v>992</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="H193" s="4"/>
       <c r="I193" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J193">
         <v>88</v>
@@ -11054,13 +11250,13 @@
       </c>
       <c r="H194" s="4"/>
       <c r="I194" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J194">
         <v>8021</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>998</v>
       </c>
@@ -11080,13 +11276,13 @@
         <v>1002</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>1256</v>
+        <v>1243</v>
       </c>
       <c r="H195" s="4" t="s">
         <v>1003</v>
       </c>
       <c r="I195" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J195">
         <v>369</v>
@@ -11112,17 +11308,17 @@
         <v>1008</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>1211</v>
+        <v>1298</v>
       </c>
       <c r="H196" s="4"/>
       <c r="I196" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J196">
         <v>372</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="63" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>1009</v>
       </c>
@@ -11142,11 +11338,11 @@
         <v>1013</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>1271</v>
+        <v>1261</v>
       </c>
       <c r="H197" s="4"/>
       <c r="I197" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J197">
         <v>67</v>
@@ -11172,17 +11368,17 @@
         <v>1018</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>1191</v>
+        <v>1175</v>
       </c>
       <c r="H198" s="4"/>
       <c r="I198" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J198">
         <v>306</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="110.25" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" ht="126" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>1019</v>
       </c>
@@ -11202,7 +11398,7 @@
         <v>1024</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>1267</v>
+        <v>1299</v>
       </c>
       <c r="H199" s="4"/>
       <c r="I199" t="s">
@@ -11232,11 +11428,11 @@
         <v>1029</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>1254</v>
+        <v>1226</v>
       </c>
       <c r="H200" s="4"/>
       <c r="I200" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J200">
         <v>640</v>
@@ -11294,13 +11490,13 @@
       </c>
       <c r="H202" s="4"/>
       <c r="I202" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J202">
         <v>475</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" ht="78.75" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>1040</v>
       </c>
@@ -11320,17 +11516,17 @@
         <v>1044</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>1225</v>
+        <v>1288</v>
       </c>
       <c r="H203" s="4"/>
       <c r="I203" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J203">
         <v>77</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>1045</v>
       </c>
@@ -11350,17 +11546,17 @@
         <v>1049</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>1108</v>
+        <v>1271</v>
       </c>
       <c r="H204" s="4"/>
       <c r="I204" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J204">
         <v>465</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>1050</v>
       </c>
@@ -11380,7 +11576,7 @@
         <v>1055</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>1157</v>
+        <v>1282</v>
       </c>
       <c r="H205" s="4"/>
       <c r="I205" t="s">
@@ -11401,10 +11597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE8BD25-C2EA-47D0-830C-C3925B509773}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11414,142 +11610,241 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1214</v>
+        <v>1196</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1258</v>
       </c>
       <c r="H1" t="s">
-        <v>1217</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1215</v>
+        <v>1197</v>
       </c>
       <c r="G2" t="s">
-        <v>1218</v>
+        <v>1200</v>
       </c>
       <c r="H2" t="s">
-        <v>1217</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1216</v>
+        <v>1198</v>
       </c>
       <c r="G3" t="s">
-        <v>1219</v>
+        <v>1266</v>
       </c>
       <c r="H3" t="s">
-        <v>1217</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1220</v>
+        <v>1201</v>
       </c>
       <c r="G4" t="s">
-        <v>1221</v>
+        <v>1202</v>
       </c>
       <c r="H4" t="s">
-        <v>1217</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1226</v>
+        <v>1203</v>
       </c>
       <c r="G5" t="s">
-        <v>1227</v>
+        <v>1204</v>
       </c>
       <c r="H5" t="s">
-        <v>1217</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1230</v>
+        <v>1206</v>
       </c>
       <c r="G6" t="s">
-        <v>1231</v>
+        <v>1207</v>
       </c>
       <c r="H6" t="s">
-        <v>1217</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1232</v>
+        <v>1208</v>
       </c>
       <c r="G7" t="s">
-        <v>1233</v>
+        <v>1209</v>
       </c>
       <c r="H7" t="s">
-        <v>1217</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1237</v>
+        <v>1212</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>1238</v>
+        <v>1213</v>
       </c>
       <c r="H8" t="s">
-        <v>1217</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1239</v>
+        <v>1214</v>
       </c>
       <c r="G9" t="s">
-        <v>1240</v>
+        <v>1215</v>
       </c>
       <c r="H9" t="s">
-        <v>1217</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1244</v>
+        <v>1218</v>
       </c>
       <c r="G10" t="s">
-        <v>1245</v>
+        <v>1219</v>
       </c>
       <c r="H10" t="s">
-        <v>1217</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1247</v>
+        <v>1221</v>
       </c>
       <c r="G11" t="s">
-        <v>1248</v>
+        <v>1222</v>
       </c>
       <c r="H11" t="s">
-        <v>1217</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1258</v>
+        <v>1228</v>
       </c>
       <c r="G12" t="s">
-        <v>1261</v>
+        <v>1230</v>
       </c>
       <c r="H12" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>1265</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>1266</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1217</v>
+      <c r="G17" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1303</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1304</v>
       </c>
     </row>
   </sheetData>
